--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnjst\Documents\UiPath\RPA04_의약품안전나라_원성현\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0618107-76FC-4ED7-B52B-58CDE71D9D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F297AE-230D-4A10-9232-99EBC2AE085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Name</t>
   </si>
@@ -301,6 +301,46 @@
   </si>
   <si>
     <t>Drug_Execute</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>의약품안전나라 메인 URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>의약품안전나라 추출 해당 URL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>원본 템플릿 저장 주소</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>프로젝트 내 원본 저장 주소</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>프로젝트 내 출력본 저장 주소</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>메일 보내는 이</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>메일 수신자</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>메일 제목 (String Format {0}, {1})</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>메일 본문(HTML 오류카운트테이블)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>메일 본문(HTML 양식+엑셀데이터테이블)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -759,7 +799,7 @@
   <dimension ref="A1:Z1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -854,7 +894,9 @@
       <c r="B7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="4" t="s">
@@ -863,7 +905,9 @@
       <c r="B8" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="9" t="s">
@@ -879,7 +923,9 @@
       <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="4" t="s">
@@ -888,7 +934,9 @@
       <c r="B11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="4" t="s">
@@ -897,7 +945,9 @@
       <c r="B12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="9" t="s">
@@ -913,7 +963,9 @@
       <c r="B14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
@@ -922,7 +974,9 @@
       <c r="B15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
@@ -931,7 +985,9 @@
       <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
@@ -940,7 +996,9 @@
       <c r="B17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
@@ -949,7 +1007,9 @@
       <c r="B18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="9" t="s">
